--- a/fhir/ig/tei/0.2.0/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/fhir/ig/tei/0.2.0/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T16:50:11-04:00</t>
+    <t>2024-06-03T10:40:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -482,7 +482,7 @@
 </t>
   </si>
   <si>
-    <t>Identificador de la Interconsulta (Se asigna a nivel central)</t>
+    <t>Identificador de la Interconsulta (Se asigna a nivel local)</t>
   </si>
   <si>
     <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
@@ -638,7 +638,7 @@
     <t>ServiceRequest.identifier.value</t>
   </si>
   <si>
-    <t>Valor del Identificador de la Interconsulta</t>
+    <t>Identificador de la Interconsulta</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -3378,10 +3378,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>91</v>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>

--- a/fhir/ig/tei/0.2.0/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/fhir/ig/tei/0.2.0/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T10:40:28-04:00</t>
+    <t>2024-06-03T17:44:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.0/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/fhir/ig/tei/0.2.0/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T17:44:35-04:00</t>
+    <t>2024-06-04T10:43:39-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
